--- a/src/test/resources/testData/testdata.xlsx
+++ b/src/test/resources/testData/testdata.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -461,87 +461,87 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
